--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7575"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
+    <sheet name="buttonText" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="674">
   <si>
     <t>English</t>
   </si>
@@ -75,6 +76,1980 @@
   </si>
   <si>
     <t>Irish</t>
+  </si>
+  <si>
+    <t>TORSettings</t>
+  </si>
+  <si>
+    <t>The Other Roles Settings</t>
+  </si>
+  <si>
+    <t>ImpostorSettings</t>
+  </si>
+  <si>
+    <t>Impostor Roles Settings</t>
+  </si>
+  <si>
+    <t>NeutralSettings</t>
+  </si>
+  <si>
+    <t>Neutral Roles Settings</t>
+  </si>
+  <si>
+    <t>CrewmateSettings</t>
+  </si>
+  <si>
+    <t>Crewmate Roles Settings</t>
+  </si>
+  <si>
+    <t>ModifierSettings</t>
+  </si>
+  <si>
+    <t>Modifier Settings</t>
+  </si>
+  <si>
+    <t>GuesserSettings</t>
+  </si>
+  <si>
+    <t>Guesser Mode Settings</t>
+  </si>
+  <si>
+    <t>HideNSeekSettings</t>
+  </si>
+  <si>
+    <t>Hide 'N Seek Settings</t>
+  </si>
+  <si>
+    <t>presetSelection</t>
+  </si>
+  <si>
+    <t>Preset</t>
+  </si>
+  <si>
+    <t>activateRoles</t>
+  </si>
+  <si>
+    <t>Enable Mod Roles And Block Vanilla Roles</t>
+  </si>
+  <si>
+    <t>enableEventMode</t>
+  </si>
+  <si>
+    <t>Enable Special Mode</t>
+  </si>
+  <si>
+    <t>crewmateRolesCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Crewmate Roles</t>
+  </si>
+  <si>
+    <t>crewmateRolesCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Crewmate Roles</t>
+  </si>
+  <si>
+    <t>neutralRolesCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Neutral Roles</t>
+  </si>
+  <si>
+    <t>neutralRolesCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Neutral Roles</t>
+  </si>
+  <si>
+    <t>impostorRolesCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Impostor Roles</t>
+  </si>
+  <si>
+    <t>impostorRolesCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Impostor Roles</t>
+  </si>
+  <si>
+    <t>modifiersCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Modifiers</t>
+  </si>
+  <si>
+    <t>modifiersCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Modifiers</t>
+  </si>
+  <si>
+    <t>Mafia</t>
+  </si>
+  <si>
+    <t>janitorCooldown</t>
+  </si>
+  <si>
+    <t>Janitor Cooldown</t>
+  </si>
+  <si>
+    <t>Morphling</t>
+  </si>
+  <si>
+    <t>morphlingCooldown</t>
+  </si>
+  <si>
+    <t>Morphling Cooldown</t>
+  </si>
+  <si>
+    <t>morphlingDuration</t>
+  </si>
+  <si>
+    <t>Morph Duration</t>
+  </si>
+  <si>
+    <t>Bomber</t>
+  </si>
+  <si>
+    <t>Bomber [BETA]</t>
+  </si>
+  <si>
+    <t>bomberBombCooldown</t>
+  </si>
+  <si>
+    <t>Bomber Cooldown</t>
+  </si>
+  <si>
+    <t>bomberDelay</t>
+  </si>
+  <si>
+    <t>Bomb Delay</t>
+  </si>
+  <si>
+    <t>bomberTimer</t>
+  </si>
+  <si>
+    <t>Bomb Timer</t>
+  </si>
+  <si>
+    <t>Undertaker</t>
+  </si>
+  <si>
+    <t>undertakerDragingDelaiAfterKill</t>
+  </si>
+  <si>
+    <t>Draging delay after kill</t>
+  </si>
+  <si>
+    <t>undertakerCanDragAndVent</t>
+  </si>
+  <si>
+    <t>Can Vent while dragging</t>
+  </si>
+  <si>
+    <t>camsNightVision</t>
+  </si>
+  <si>
+    <t>Cams Switch To Night Vision If Lights Are Off</t>
+  </si>
+  <si>
+    <t>在灯光被关闭时监控使用黑夜模式</t>
+  </si>
+  <si>
+    <t>camsNoNightVisionIfImpVision</t>
+  </si>
+  <si>
+    <t>Impostor Vision Ignores Night Vision Cams</t>
+  </si>
+  <si>
+    <t>拥有内鬼视野的玩家无视黑夜模式</t>
+  </si>
+  <si>
+    <t>Camouflager</t>
+  </si>
+  <si>
+    <t>camouflagerCooldown</t>
+  </si>
+  <si>
+    <t>Camouflager Cooldown</t>
+  </si>
+  <si>
+    <t>camouflagerDuration</t>
+  </si>
+  <si>
+    <t>Camo Duration</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>vampireKillDelay</t>
+  </si>
+  <si>
+    <t>Vampire Kill Delay</t>
+  </si>
+  <si>
+    <t>vampireCooldown</t>
+  </si>
+  <si>
+    <t>Vampire Cooldown</t>
+  </si>
+  <si>
+    <t>vampireGarlicButton</t>
+  </si>
+  <si>
+    <t>Enable Garlic</t>
+  </si>
+  <si>
+    <t>vampireCanKillNearGarlics</t>
+  </si>
+  <si>
+    <t>Vampire Can Kill Near Garlics</t>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>eraserCooldown</t>
+  </si>
+  <si>
+    <t>Eraser Cooldown</t>
+  </si>
+  <si>
+    <t>eraserCanEraseAnyone</t>
+  </si>
+  <si>
+    <t>Eraser Can Erase Anyone</t>
+  </si>
+  <si>
+    <t>Poucher</t>
+  </si>
+  <si>
+    <t>Mimic</t>
+  </si>
+  <si>
+    <t>Trickster</t>
+  </si>
+  <si>
+    <t>tricksterPlaceBoxCooldown</t>
+  </si>
+  <si>
+    <t>Trickster Box Cooldown</t>
+  </si>
+  <si>
+    <t>tricksterLightsOutCooldown</t>
+  </si>
+  <si>
+    <t>Trickster Lights Out Cooldown</t>
+  </si>
+  <si>
+    <t>tricksterLightsOutDuration</t>
+  </si>
+  <si>
+    <t>Trickster Lights Out Duration</t>
+  </si>
+  <si>
+    <t>Cleaner</t>
+  </si>
+  <si>
+    <t>cleanerCooldown</t>
+  </si>
+  <si>
+    <t>Cleaner Cooldown</t>
+  </si>
+  <si>
+    <t>Warlock</t>
+  </si>
+  <si>
+    <t>warlockCooldown</t>
+  </si>
+  <si>
+    <t>Warlock Cooldown</t>
+  </si>
+  <si>
+    <t>warlockRootTime</t>
+  </si>
+  <si>
+    <t>Warlock Root Time</t>
+  </si>
+  <si>
+    <t>bountyhunter</t>
+  </si>
+  <si>
+    <t>Bounty Hunter</t>
+  </si>
+  <si>
+    <t>bountyHunterBountyDuration</t>
+  </si>
+  <si>
+    <t>Duration After Which Bounty Changes</t>
+  </si>
+  <si>
+    <t>bountyHunterReducedCooldown</t>
+  </si>
+  <si>
+    <t>Cooldown After Killing Bounty</t>
+  </si>
+  <si>
+    <t>bountyHunterPunishmentTime</t>
+  </si>
+  <si>
+    <t>Additional Cooldown After Killing Others</t>
+  </si>
+  <si>
+    <t>bountyHunterShowArrow</t>
+  </si>
+  <si>
+    <t>Show Arrow Pointing Towards The Bounty</t>
+  </si>
+  <si>
+    <t>bountyHunterArrowUpdateIntervall</t>
+  </si>
+  <si>
+    <t>Arrow Update Intervall</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>witchCooldown</t>
+  </si>
+  <si>
+    <t>Witch Spell Casting Cooldown</t>
+  </si>
+  <si>
+    <t>witchAdditionalCooldown</t>
+  </si>
+  <si>
+    <t>Witch Additional Cooldown</t>
+  </si>
+  <si>
+    <t>witchCanSpellAnyone</t>
+  </si>
+  <si>
+    <t>Witch Can Spell Anyone</t>
+  </si>
+  <si>
+    <t>witchSpellCastingDuration</t>
+  </si>
+  <si>
+    <t>Spell Casting Duration</t>
+  </si>
+  <si>
+    <t>witchTriggerBothCooldowns</t>
+  </si>
+  <si>
+    <t>Trigger Both Cooldowns</t>
+  </si>
+  <si>
+    <t>witchVoteSavesTargets</t>
+  </si>
+  <si>
+    <t>Voting The Witch Saves All The Targets</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>ninjaCooldown</t>
+  </si>
+  <si>
+    <t>Ninja Mark Cooldown</t>
+  </si>
+  <si>
+    <t>ninjaKnowsTargetLocation</t>
+  </si>
+  <si>
+    <t>Ninja Knows Location Of Target</t>
+  </si>
+  <si>
+    <t>ninjaTraceTime</t>
+  </si>
+  <si>
+    <t>Trace Duration</t>
+  </si>
+  <si>
+    <t>ninjaTraceColorTime</t>
+  </si>
+  <si>
+    <t>Time Till Trace Color Has Faded</t>
+  </si>
+  <si>
+    <t>ninjaInvisibleDuration</t>
+  </si>
+  <si>
+    <t>Time The Ninja Is Invisible</t>
+  </si>
+  <si>
+    <t>Blackmailer</t>
+  </si>
+  <si>
+    <t>blackmailerCooldown</t>
+  </si>
+  <si>
+    <t>Blackmail Cooldown</t>
+  </si>
+  <si>
+    <t>whatrole</t>
+  </si>
+  <si>
+    <t>What is your role? My role is {0} {1}.</t>
+  </si>
+  <si>
+    <t>killercolor</t>
+  </si>
+  <si>
+    <t>What is your killer`s color type? My killer is a {0} color {1}.</t>
+  </si>
+  <si>
+    <t>dietime</t>
+  </si>
+  <si>
+    <t>When did you die? I have died {0}s before meeting started {1}.</t>
+  </si>
+  <si>
+    <t>killerrole</t>
+  </si>
+  <si>
+    <t>What is your killer`s role? My killer is {0} {1}.</t>
+  </si>
+  <si>
+    <t>Jester</t>
+  </si>
+  <si>
+    <t>jesterCanCallEmergency</t>
+  </si>
+  <si>
+    <t>Jester Can Call Emergency Meeting</t>
+  </si>
+  <si>
+    <t>jesterCanVent</t>
+  </si>
+  <si>
+    <t>Jester Can Hide in Vent</t>
+  </si>
+  <si>
+    <t>jesterHasImpostorVision</t>
+  </si>
+  <si>
+    <t>Jester Has Impostor Vision</t>
+  </si>
+  <si>
+    <t>Executioner</t>
+  </si>
+  <si>
+    <t>Amnesiac</t>
+  </si>
+  <si>
+    <t>amnisiacShowArrows</t>
+  </si>
+  <si>
+    <t>Show arrows to dead bodies</t>
+  </si>
+  <si>
+    <t>amnisiacResetRole</t>
+  </si>
+  <si>
+    <t>Reset role when taken</t>
+  </si>
+  <si>
+    <t>Arsonist</t>
+  </si>
+  <si>
+    <t>arsonistCooldown</t>
+  </si>
+  <si>
+    <t>Arsonist Cooldown</t>
+  </si>
+  <si>
+    <t>arsonistDuration</t>
+  </si>
+  <si>
+    <t>Arsonist Douse Duration</t>
+  </si>
+  <si>
+    <t>Jackal</t>
+  </si>
+  <si>
+    <t>jackalKillCooldown</t>
+  </si>
+  <si>
+    <t>Jackal/Sidekick Kill Cooldown</t>
+  </si>
+  <si>
+    <t>jackalCreateSidekickCooldown</t>
+  </si>
+  <si>
+    <t>Jackal Create Sidekick Cooldown</t>
+  </si>
+  <si>
+    <t>jackalhasChat</t>
+  </si>
+  <si>
+    <t>Jackal team has Chat</t>
+  </si>
+  <si>
+    <t>jackalCanUseVents</t>
+  </si>
+  <si>
+    <t>Jackal Can Use Vents</t>
+  </si>
+  <si>
+    <t>jackalCanUseSabo</t>
+  </si>
+  <si>
+    <t>Jackal Team Can Sabo</t>
+  </si>
+  <si>
+    <t>jackalCanCreateSidekick</t>
+  </si>
+  <si>
+    <t>Jackal Can Create A Sidekick</t>
+  </si>
+  <si>
+    <t>sidekickPromotesToJackal</t>
+  </si>
+  <si>
+    <t>Sidekick Gets Promoted To Jackal On Jackal Death</t>
+  </si>
+  <si>
+    <t>sidekickCanKill</t>
+  </si>
+  <si>
+    <t>Sidekick Can Kill</t>
+  </si>
+  <si>
+    <t>sidekickCanUseVents</t>
+  </si>
+  <si>
+    <t>Sidekick Can Use Vents</t>
+  </si>
+  <si>
+    <t>jackalPromotedFromSidekickCanCreateSidekick</t>
+  </si>
+  <si>
+    <t>Jackals Promoted From Sidekick Can Create A Sidekick</t>
+  </si>
+  <si>
+    <t>jackalCanCreateSidekickFromImpostor</t>
+  </si>
+  <si>
+    <t>Jackals Can Make An Impostor To His Sidekick</t>
+  </si>
+  <si>
+    <t>jackalKillFakeImpostor</t>
+  </si>
+  <si>
+    <t>Kill a failed sidekick attempt</t>
+  </si>
+  <si>
+    <t>jackalAndSidekickHaveImpostorVision</t>
+  </si>
+  <si>
+    <t>Jackal And Sidekick Have Impostor Vision</t>
+  </si>
+  <si>
+    <t>Swooper</t>
+  </si>
+  <si>
+    <t>swooperAsWell</t>
+  </si>
+  <si>
+    <t>Spawn as Alternate Jackal</t>
+  </si>
+  <si>
+    <t>swooperCooldown</t>
+  </si>
+  <si>
+    <t>Swoop Cooldown</t>
+  </si>
+  <si>
+    <t>swooperDuration</t>
+  </si>
+  <si>
+    <t>Swoop Duration</t>
+  </si>
+  <si>
+    <t>swooperHasImpVision</t>
+  </si>
+  <si>
+    <t>Swooper Has Impostor Vision</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>minerCooldown</t>
+  </si>
+  <si>
+    <t>Mine Cooldown</t>
+  </si>
+  <si>
+    <t>Vulture</t>
+  </si>
+  <si>
+    <t>vultureCooldown</t>
+  </si>
+  <si>
+    <t>Vulture Cooldown</t>
+  </si>
+  <si>
+    <t>vultureNumberToWin</t>
+  </si>
+  <si>
+    <t>Number Of Corpses Needed To Be Eaten</t>
+  </si>
+  <si>
+    <t>vultureCanUseVents</t>
+  </si>
+  <si>
+    <t>Vulture Can Use Vents</t>
+  </si>
+  <si>
+    <t>vultureShowArrows</t>
+  </si>
+  <si>
+    <t>Show Arrows Pointing Towards The Corpses</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>lawyerVision</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>lawyerKnowsRole</t>
+  </si>
+  <si>
+    <t>Lawyer/Prosecutor Knows Target Role</t>
+  </si>
+  <si>
+    <t>lawyerCanCallEmergency</t>
+  </si>
+  <si>
+    <t>Lawyer/Prosecutor Can Call Emergency Meeting</t>
+  </si>
+  <si>
+    <t>lawyerTargetCanBeJester</t>
+  </si>
+  <si>
+    <t>Lawyer Target Can Be The Jester</t>
+  </si>
+  <si>
+    <t>pursuerCooldown</t>
+  </si>
+  <si>
+    <t>Pursuer Blank Cooldown</t>
+  </si>
+  <si>
+    <t>pursuerBlanksNumber</t>
+  </si>
+  <si>
+    <t>Pursuer Number Of Blanks</t>
+  </si>
+  <si>
+    <t>Werewolf</t>
+  </si>
+  <si>
+    <t>werewolfRampageCooldown</t>
+  </si>
+  <si>
+    <t>Rampage Cooldown</t>
+  </si>
+  <si>
+    <t>werewolfRampageDuration</t>
+  </si>
+  <si>
+    <t>Rampage Duration</t>
+  </si>
+  <si>
+    <t>werewolfKillCooldown</t>
+  </si>
+  <si>
+    <t>KillCooldown</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>mayorCanSeeVoteColor</t>
+  </si>
+  <si>
+    <t>Mayor Can See Vote Colors</t>
+  </si>
+  <si>
+    <t>mayorTasksNeededToSeeVoteColors</t>
+  </si>
+  <si>
+    <t>Completed Tasks Needed To See Vote Colors</t>
+  </si>
+  <si>
+    <t>mayorMeetingButton</t>
+  </si>
+  <si>
+    <t>Mobile Emergency Button</t>
+  </si>
+  <si>
+    <t>mayorMaxRemoteMeetings</t>
+  </si>
+  <si>
+    <t>Number Of Remote Meetings</t>
+  </si>
+  <si>
+    <t>mayorChooseSingleVote</t>
+  </si>
+  <si>
+    <t>Mayor Can Choose Single Vote</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>engineerNumberOfFixes</t>
+  </si>
+  <si>
+    <t>Number Of Sabotage Fixes</t>
+  </si>
+  <si>
+    <t>engineerHighlightForImpostors</t>
+  </si>
+  <si>
+    <t>Impostors See Vents Highlighted</t>
+  </si>
+  <si>
+    <t>engineerHighlightForTeamJackal</t>
+  </si>
+  <si>
+    <t>Jackal and Sidekick See Vents Highlighted</t>
+  </si>
+  <si>
+    <t>PrivateInvestigator</t>
+  </si>
+  <si>
+    <t>Private Investigator</t>
+  </si>
+  <si>
+    <t>privateInvestigatorSeeColor</t>
+  </si>
+  <si>
+    <t>Can see target player color</t>
+  </si>
+  <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
+    <t>sheriffCooldown</t>
+  </si>
+  <si>
+    <t>Sheriff Cooldown</t>
+  </si>
+  <si>
+    <t>sheriffCanKillNeutrals</t>
+  </si>
+  <si>
+    <t>Sheriff Can Kill Neutrals</t>
+  </si>
+  <si>
+    <t>sheriffDeputy</t>
+  </si>
+  <si>
+    <t>Sheriff Has A Deputy</t>
+  </si>
+  <si>
+    <t>deputyNumberOfHandcuffs</t>
+  </si>
+  <si>
+    <t>Deputy Number Of Handcuffs</t>
+  </si>
+  <si>
+    <t>deputyHandcuffDuration</t>
+  </si>
+  <si>
+    <t>Handcuff Duration</t>
+  </si>
+  <si>
+    <t>deputyHandcuffCooldown</t>
+  </si>
+  <si>
+    <t>Handcuff Cooldown</t>
+  </si>
+  <si>
+    <t>deputyKnowsSheriff</t>
+  </si>
+  <si>
+    <t>Sheriff And Deputy Know Each Other</t>
+  </si>
+  <si>
+    <t>deputyGetsPromoted</t>
+  </si>
+  <si>
+    <t>Deputy Gets Promoted To Sheriff</t>
+  </si>
+  <si>
+    <t>deputyKeepsHandcuffs</t>
+  </si>
+  <si>
+    <t>Deputy Keeps Handcuffs When Promoted</t>
+  </si>
+  <si>
+    <t>Lighter</t>
+  </si>
+  <si>
+    <t>lighterModeLightsOnVision</t>
+  </si>
+  <si>
+    <t>Lighter Mode Vision On Lights On</t>
+  </si>
+  <si>
+    <t>lighterModeLightsOffVision</t>
+  </si>
+  <si>
+    <t>Lighter Mode Vision On Lights Off</t>
+  </si>
+  <si>
+    <t>lighterCooldown</t>
+  </si>
+  <si>
+    <t>Lighter Cooldown</t>
+  </si>
+  <si>
+    <t>lighterDuration</t>
+  </si>
+  <si>
+    <t>Lighter Duration</t>
+  </si>
+  <si>
+    <t>Detective</t>
+  </si>
+  <si>
+    <t>detectiveAnonymousFootprints</t>
+  </si>
+  <si>
+    <t>Anonymous Footprints</t>
+  </si>
+  <si>
+    <t>detectiveFootprintInterval</t>
+  </si>
+  <si>
+    <t>Footprint Interval</t>
+  </si>
+  <si>
+    <t>detectiveFootprintDuration</t>
+  </si>
+  <si>
+    <t>Footprint Duration</t>
+  </si>
+  <si>
+    <t>detectiveReportNameDuration</t>
+  </si>
+  <si>
+    <t>Time Where Detective Reports Will Have Name</t>
+  </si>
+  <si>
+    <t>detectiveReportColorDuration</t>
+  </si>
+  <si>
+    <t>Time Where Detective Reports Will Have Color Type</t>
+  </si>
+  <si>
+    <t>TimeMaster</t>
+  </si>
+  <si>
+    <t>Time Master</t>
+  </si>
+  <si>
+    <t>timeMasterCooldown</t>
+  </si>
+  <si>
+    <t>Time Master Cooldown</t>
+  </si>
+  <si>
+    <t>timeMasterRewindTime</t>
+  </si>
+  <si>
+    <t>Rewind Time</t>
+  </si>
+  <si>
+    <t>timeMasterShieldDuration</t>
+  </si>
+  <si>
+    <t>Time Master Shield Duration</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>veterenCooldown</t>
+  </si>
+  <si>
+    <t>Alert Cooldown</t>
+  </si>
+  <si>
+    <t>veterenAlertDuration</t>
+  </si>
+  <si>
+    <t>Alert Duration</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>medicShowShielded</t>
+  </si>
+  <si>
+    <t>Show Shielded Player</t>
+  </si>
+  <si>
+    <t>medicShowShieldedMedic</t>
+  </si>
+  <si>
+    <t>medicShowShieldedBoth</t>
+  </si>
+  <si>
+    <t>Shielded + Medic</t>
+  </si>
+  <si>
+    <t>medicShowShieldedAll</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>medicShowAttemptToShielded</t>
+  </si>
+  <si>
+    <t>Shielded Player Sees Murder Attempt</t>
+  </si>
+  <si>
+    <t>medicSetOrShowShieldAfterMeeting</t>
+  </si>
+  <si>
+    <t>Shield Will Be Activated</t>
+  </si>
+  <si>
+    <t>medicShowAttemptToMedic</t>
+  </si>
+  <si>
+    <t>Medic Sees Murder Attempt On Shielded Player</t>
+  </si>
+  <si>
+    <t>medicInstantly</t>
+  </si>
+  <si>
+    <t>Instantly</t>
+  </si>
+  <si>
+    <t>medicVisibleAfterMeeting</t>
+  </si>
+  <si>
+    <t>Instantly, Visible\nAfter Meeting</t>
+  </si>
+  <si>
+    <t>medicAftermeeting</t>
+  </si>
+  <si>
+    <t>After Meeting</t>
+  </si>
+  <si>
+    <t>Swapper</t>
+  </si>
+  <si>
+    <t>swapperCanCallEmergency</t>
+  </si>
+  <si>
+    <t>Swapper Can Call Emergency Meeting</t>
+  </si>
+  <si>
+    <t>swapperCanOnlySwapOthers</t>
+  </si>
+  <si>
+    <t>Swapper Can Only Swap Others</t>
+  </si>
+  <si>
+    <t>swapperSwapsNumber</t>
+  </si>
+  <si>
+    <t>Initial Swap Charges</t>
+  </si>
+  <si>
+    <t>swapperRechargeTasksNumber</t>
+  </si>
+  <si>
+    <t>Number Of Tasks Needed For Recharging</t>
+  </si>
+  <si>
+    <t>Seer</t>
+  </si>
+  <si>
+    <t>seerMode</t>
+  </si>
+  <si>
+    <t>Seer Mode</t>
+  </si>
+  <si>
+    <t>seerModeSouls</t>
+  </si>
+  <si>
+    <t>Show Souls</t>
+  </si>
+  <si>
+    <t>seerModeFlash</t>
+  </si>
+  <si>
+    <t>Show Death Flash</t>
+  </si>
+  <si>
+    <t>seerModeBoth</t>
+  </si>
+  <si>
+    <t>Show Death Flash + Souls</t>
+  </si>
+  <si>
+    <t>seerLimitSoulDuration</t>
+  </si>
+  <si>
+    <t>Seer Limit Soul Duration</t>
+  </si>
+  <si>
+    <t>seerSoulDuration</t>
+  </si>
+  <si>
+    <t>Seer Soul Duration</t>
+  </si>
+  <si>
+    <t>Hacker</t>
+  </si>
+  <si>
+    <t>hackerCooldown</t>
+  </si>
+  <si>
+    <t>Hacker Cooldown</t>
+  </si>
+  <si>
+    <t>hackerHackeringDuration</t>
+  </si>
+  <si>
+    <t>Hacker Duration</t>
+  </si>
+  <si>
+    <t>hackerOnlyColorType</t>
+  </si>
+  <si>
+    <t>Hacker Only Sees Color Type</t>
+  </si>
+  <si>
+    <t>hackerToolsNumber</t>
+  </si>
+  <si>
+    <t>Max Mobile Gadget Charges</t>
+  </si>
+  <si>
+    <t>hackerRechargeTasksNumber</t>
+  </si>
+  <si>
+    <t>hackerNoMove</t>
+  </si>
+  <si>
+    <t>Cant Move During Mobile Gadget Duration</t>
+  </si>
+  <si>
+    <t>Tracker</t>
+  </si>
+  <si>
+    <t>trackerUpdateInterval</t>
+  </si>
+  <si>
+    <t>Tracker Update Interval</t>
+  </si>
+  <si>
+    <t>trackerResetTargetAfterMeeting</t>
+  </si>
+  <si>
+    <t>Tracker Reset Target After Meeting</t>
+  </si>
+  <si>
+    <t>trackerCanTrackCorpses</t>
+  </si>
+  <si>
+    <t>Tracker Can Track Corpses</t>
+  </si>
+  <si>
+    <t>trackerCorpsesTrackingCooldown</t>
+  </si>
+  <si>
+    <t>Corpses Tracking Cooldown</t>
+  </si>
+  <si>
+    <t>trackerCorpsesTrackingDuration</t>
+  </si>
+  <si>
+    <t>Corpses Tracking Duration</t>
+  </si>
+  <si>
+    <t>Snitch</t>
+  </si>
+  <si>
+    <t>snitchLeftTasksForReveal</t>
+  </si>
+  <si>
+    <t>Task Count Where The Snitch Will Be Revealed</t>
+  </si>
+  <si>
+    <t>snitchIncludeTeamJackal</t>
+  </si>
+  <si>
+    <t>Include Team Jackal</t>
+  </si>
+  <si>
+    <t>snitchSeeMeeting</t>
+  </si>
+  <si>
+    <t>Show roles in Meeting</t>
+  </si>
+  <si>
+    <t>snitchTeamJackalUseDifferentArrowColor</t>
+  </si>
+  <si>
+    <t>Use Different Arrow Color For Team Jackal</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
+    <t>spyCanDieToSheriff</t>
+  </si>
+  <si>
+    <t>Spy Can Die To Sheriff</t>
+  </si>
+  <si>
+    <t>spyImpostorsCanKillAnyone</t>
+  </si>
+  <si>
+    <t>Impostors Can Kill Anyone If There Is A Spy</t>
+  </si>
+  <si>
+    <t>spyCanEnterVents</t>
+  </si>
+  <si>
+    <t>Spy Can Enter Vents</t>
+  </si>
+  <si>
+    <t>spyHasImpostorVision</t>
+  </si>
+  <si>
+    <t>Spy Has Impostor Vision</t>
+  </si>
+  <si>
+    <t>Portalmaker</t>
+  </si>
+  <si>
+    <t>portalmakerIntroDesc</t>
+  </si>
+  <si>
+    <t>You can create portals</t>
+  </si>
+  <si>
+    <t>portalmakerShortDesc</t>
+  </si>
+  <si>
+    <t>portalmakerCooldown</t>
+  </si>
+  <si>
+    <t>Portalmaker Cooldown</t>
+  </si>
+  <si>
+    <t>portalmakerUsePortalCooldown</t>
+  </si>
+  <si>
+    <t>Use Portal Cooldown</t>
+  </si>
+  <si>
+    <t>portalmakerLogOnlyColorType</t>
+  </si>
+  <si>
+    <t>Portalmaker Log Only Shows Color Type</t>
+  </si>
+  <si>
+    <t>portalmakerLogHasTime</t>
+  </si>
+  <si>
+    <t>Log Shows Time</t>
+  </si>
+  <si>
+    <t>SecurityGuard</t>
+  </si>
+  <si>
+    <t>Security Guard</t>
+  </si>
+  <si>
+    <t>securityGuardCooldown</t>
+  </si>
+  <si>
+    <t>Security Guard Cooldown</t>
+  </si>
+  <si>
+    <t>securityGuardTotalScrews</t>
+  </si>
+  <si>
+    <t>Security Guard Number Of Screws</t>
+  </si>
+  <si>
+    <t>securityGuardCamPrice</t>
+  </si>
+  <si>
+    <t>Number Of Screws Per Cam</t>
+  </si>
+  <si>
+    <t>securityGuardVentPrice</t>
+  </si>
+  <si>
+    <t>Number Of Screws Per Vent</t>
+  </si>
+  <si>
+    <t>securityGuardCamDuration</t>
+  </si>
+  <si>
+    <t>Security Guard Duration</t>
+  </si>
+  <si>
+    <t>securityGuardCamMaxCharges</t>
+  </si>
+  <si>
+    <t>Gadget Max Charges</t>
+  </si>
+  <si>
+    <t>securityGuardCamRechargeTasksNumber</t>
+  </si>
+  <si>
+    <t>securityGuardNoMove</t>
+  </si>
+  <si>
+    <t>Cant Move During Cam Duration</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>mediumCooldown</t>
+  </si>
+  <si>
+    <t>Medium Questioning Cooldown</t>
+  </si>
+  <si>
+    <t>mediumDuration</t>
+  </si>
+  <si>
+    <t>Medium Questioning Duration</t>
+  </si>
+  <si>
+    <t>mediumOneTimeUse</t>
+  </si>
+  <si>
+    <t>Each Soul Can Only Be Questioned Once</t>
+  </si>
+  <si>
+    <t>Bodyguard</t>
+  </si>
+  <si>
+    <t>bodyGuardResetTargetAfterMeeting</t>
+  </si>
+  <si>
+    <t>Reset Target After Meeting</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>thiefCooldown</t>
+  </si>
+  <si>
+    <t>Thief Cooldown</t>
+  </si>
+  <si>
+    <t>thiefCanKillSheriff</t>
+  </si>
+  <si>
+    <t>Thief Can Kill Sheriff</t>
+  </si>
+  <si>
+    <t>thiefHasImpVision</t>
+  </si>
+  <si>
+    <t>Thief Has Impostor Vision</t>
+  </si>
+  <si>
+    <t>thiefCanUseVents</t>
+  </si>
+  <si>
+    <t>Thief Can Use Vents</t>
+  </si>
+  <si>
+    <t>Trapper</t>
+  </si>
+  <si>
+    <t>trapperCooldown</t>
+  </si>
+  <si>
+    <t>Trapper Cooldown</t>
+  </si>
+  <si>
+    <t>trapperMaxCharges</t>
+  </si>
+  <si>
+    <t>Max Traps Charges</t>
+  </si>
+  <si>
+    <t>trapperRechargeTasksNumber</t>
+  </si>
+  <si>
+    <t>trapperTrapNeededTriggerToReveal</t>
+  </si>
+  <si>
+    <t>Trap Needed Trigger To Reveal</t>
+  </si>
+  <si>
+    <t>trapperAnonymousMap</t>
+  </si>
+  <si>
+    <t>Show Anonymous Map</t>
+  </si>
+  <si>
+    <t>trapperInfoType</t>
+  </si>
+  <si>
+    <t>Trap Information Type</t>
+  </si>
+  <si>
+    <t>TrapperRole</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>TrapperGoodEvil Role</t>
+  </si>
+  <si>
+    <t>Good/Evil Role</t>
+  </si>
+  <si>
+    <t>TrapperName</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>trapperTrapDuration</t>
+  </si>
+  <si>
+    <t>Trap Duration</t>
+  </si>
+  <si>
+    <t>modifiersAreHidden</t>
+  </si>
+  <si>
+    <t>Hide After Death Modifiers</t>
+  </si>
+  <si>
+    <t>死亡后隐藏附加职业效果</t>
+  </si>
+  <si>
+    <t>artwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional artwork by </t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他美术作者: </t>
+  </si>
+  <si>
+    <t>basedtor</t>
+  </si>
+  <si>
+    <t>based on &lt;color=#FCCE03FF&gt;TheOtherRoles&lt;/color&gt; by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>基于&lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;制作的&lt;color=#FCCE03FF&gt;TheOtherRoles&lt;/color&gt;, 中文翻译: &lt;color=#00ffff&gt;fangkuai&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Moddedby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modded by </t>
+  </si>
+  <si>
+    <t xml:space="preserve">模组作者: </t>
+  </si>
+  <si>
+    <t>specialthanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special thanks to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">特别感谢 </t>
+  </si>
+  <si>
+    <t>pingtextchange</t>
+  </si>
+  <si>
+    <t>Ping: {0} ms&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>延迟: {0} 毫秒&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>pingveryhigh</t>
+  </si>
+  <si>
+    <t>Please check your network connection\n</t>
+  </si>
+  <si>
+    <t>请检查网络连接\n</t>
+  </si>
+  <si>
+    <t>CurrentModeOff</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>CurrentModeHorse</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>马模式</t>
+  </si>
+  <si>
+    <t>CurrentModeLong</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>长颈鹿模式</t>
+  </si>
+  <si>
+    <t>Aprilfoolsmode</t>
+  </si>
+  <si>
+    <t>April fools mode: {0}</t>
+  </si>
+  <si>
+    <t>愚人节模式: {0}</t>
+  </si>
+  <si>
+    <t>moreOptionsText</t>
+  </si>
+  <si>
+    <t>Mod Options...</t>
+  </si>
+  <si>
+    <t>模组设置...</t>
+  </si>
+  <si>
+    <t>startingTimer</t>
+  </si>
+  <si>
+    <t>Starting in {0}</t>
+  </si>
+  <si>
+    <t>开始倒计时：{0}</t>
+  </si>
+  <si>
+    <t>errorNotInstalled</t>
+  </si>
+  <si>
+    <t>{0} has a different or no version of GMIA</t>
+  </si>
+  <si>
+    <t>{0} 有不同或没有超多职业GMIA</t>
+  </si>
+  <si>
+    <t>errorOlderVersion</t>
+  </si>
+  <si>
+    <t>{0} has an older version of GMIA</t>
+  </si>
+  <si>
+    <t>{0} 有一个更老版本的超多职业GMIA</t>
+  </si>
+  <si>
+    <t>errorNewerVersion</t>
+  </si>
+  <si>
+    <t>{0} has a newer version of GMIA</t>
+  </si>
+  <si>
+    <t>{0} 有一个更新版本的超多职业GMIA</t>
+  </si>
+  <si>
+    <t>errorWrongVersion</t>
+  </si>
+  <si>
+    <t>{0} has a modified version of GMIA</t>
+  </si>
+  <si>
+    <t>{0} 有一个修改过的超多职业GMIA</t>
+  </si>
+  <si>
+    <t>errorHostNoVersion</t>
+  </si>
+  <si>
+    <t>The host has no or a different version of GMIA\nYou will be kicked in {0}s</t>
+  </si>
+  <si>
+    <t>房主没有超多职业GMIA或有另一个版本\n你将会在{0}秒后被踢</t>
+  </si>
+  <si>
+    <t>errorDifferentVersion</t>
+  </si>
+  <si>
+    <t>Players With Different Versions:</t>
+  </si>
+  <si>
+    <t>拥有不同版本的玩家:</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>REPAIR</t>
+  </si>
+  <si>
+    <t>修理</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>CLEAN</t>
+  </si>
+  <si>
+    <t>清理</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>KILL</t>
+  </si>
+  <si>
+    <t>击杀</t>
+  </si>
+  <si>
+    <t>cuff</t>
+  </si>
+  <si>
+    <t>CUFF</t>
+  </si>
+  <si>
+    <t>手铐</t>
+  </si>
+  <si>
+    <t>timeshield</t>
+  </si>
+  <si>
+    <t>TIME SHIELD</t>
+  </si>
+  <si>
+    <t>时间之盾</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>ALERT</t>
+  </si>
+  <si>
+    <t>警戒</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>SHIELD</t>
+  </si>
+  <si>
+    <t>上盾</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>SHIFT</t>
+  </si>
+  <si>
+    <t>交换</t>
+  </si>
+  <si>
+    <t>disperse</t>
+  </si>
+  <si>
+    <t>DISPERSE</t>
+  </si>
+  <si>
+    <t>分散</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
+  <si>
+    <t>取样</t>
+  </si>
+  <si>
+    <t>morph</t>
+  </si>
+  <si>
+    <t>MORPH</t>
+  </si>
+  <si>
+    <t>化形</t>
+  </si>
+  <si>
+    <t>camo</t>
+  </si>
+  <si>
+    <t>CAMO</t>
+  </si>
+  <si>
+    <t>隐蔽</t>
+  </si>
+  <si>
+    <t>hack</t>
+  </si>
+  <si>
+    <t>HACK</t>
+  </si>
+  <si>
+    <t>黑入</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>管理室</t>
+  </si>
+  <si>
+    <t>doorlog</t>
+  </si>
+  <si>
+    <t>DOORLOG</t>
+  </si>
+  <si>
+    <t>门记录</t>
+  </si>
+  <si>
+    <t>vitals</t>
+  </si>
+  <si>
+    <t>VITALS</t>
+  </si>
+  <si>
+    <t>生命检测仪</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>TRACK</t>
+  </si>
+  <si>
+    <t>追踪</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>FIND</t>
+  </si>
+  <si>
+    <t>寻找</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>GUARD</t>
+  </si>
+  <si>
+    <t>保护</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>WATCH</t>
+  </si>
+  <si>
+    <t>观察</t>
+  </si>
+  <si>
+    <t>bite</t>
+  </si>
+  <si>
+    <t>BITE</t>
+  </si>
+  <si>
+    <t>撕咬</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>GARLIC</t>
+  </si>
+  <si>
+    <t>放置大蒜</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>PLACE</t>
+  </si>
+  <si>
+    <t>放置</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>USE</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>sidekick</t>
+  </si>
+  <si>
+    <t>SIDEKICK</t>
+  </si>
+  <si>
+    <t>招募跟班</t>
+  </si>
+  <si>
+    <t>swoop</t>
+  </si>
+  <si>
+    <t>SWOOP</t>
+  </si>
+  <si>
+    <t>隐身</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>BOMB</t>
+  </si>
+  <si>
+    <t>传递炸弹</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>LIGHT</t>
+  </si>
+  <si>
+    <t>点灯</t>
+  </si>
+  <si>
+    <t>erase</t>
+  </si>
+  <si>
+    <t>ERASE</t>
+  </si>
+  <si>
+    <t>抹除职业</t>
+  </si>
+  <si>
+    <t>lightout</t>
+  </si>
+  <si>
+    <t>LIGHT OUT</t>
+  </si>
+  <si>
+    <t>关灯</t>
+  </si>
+  <si>
+    <t>drag</t>
+  </si>
+  <si>
+    <t>DRAG</t>
+  </si>
+  <si>
+    <t>拖拽</t>
+  </si>
+  <si>
+    <t>cursekill</t>
+  </si>
+  <si>
+    <t>CURSE KILL</t>
+  </si>
+  <si>
+    <t>咒杀</t>
+  </si>
+  <si>
+    <t>curse</t>
+  </si>
+  <si>
+    <t>CURSE</t>
+  </si>
+  <si>
+    <t>诅咒</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>摄像头</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>SEAL</t>
+  </si>
+  <si>
+    <t>封锁管道</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>SECURITY</t>
+  </si>
+  <si>
+    <t>监控室</t>
+  </si>
+  <si>
+    <t>douse</t>
+  </si>
+  <si>
+    <t>DOUSE</t>
+  </si>
+  <si>
+    <t>浇油</t>
+  </si>
+  <si>
+    <t>ignite</t>
+  </si>
+  <si>
+    <t>IGNITE</t>
+  </si>
+  <si>
+    <t>点火</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>EAT</t>
+  </si>
+  <si>
+    <t>吞噬</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>REMEMBER</t>
+  </si>
+  <si>
+    <t>回忆职业</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>ASK</t>
+  </si>
+  <si>
+    <t>通灵</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>BLANK</t>
+  </si>
+  <si>
+    <t>空包弹</t>
+  </si>
+  <si>
+    <t>spell</t>
+  </si>
+  <si>
+    <t>SPELL</t>
+  </si>
+  <si>
+    <t>下咒</t>
+  </si>
+  <si>
+    <t>ninja</t>
+  </si>
+  <si>
+    <t>NINJA</t>
+  </si>
+  <si>
+    <t>忍者</t>
+  </si>
+  <si>
+    <t>blackmail</t>
+  </si>
+  <si>
+    <t>BLACKMAIL</t>
+  </si>
+  <si>
+    <t>勒索</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>EMERGENCY</t>
+  </si>
+  <si>
+    <t>紧急会议</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>TRAP</t>
+  </si>
+  <si>
+    <t>放置陷阱</t>
+  </si>
+  <si>
+    <t>arrowns</t>
+  </si>
+  <si>
+    <t>ARROWNS</t>
+  </si>
+  <si>
+    <t>追踪箭头</t>
   </si>
 </sst>
 </file>
@@ -87,13 +2062,31 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="128"/>
     </font>
     <font>
       <u/>
@@ -560,140 +2553,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1005,62 +3013,2408 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="B329" sqref="B329"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.625" style="2" customWidth="1"/>
+    <col min="3" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="56.275" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:17">
-      <c r="B1" t="s">
+    <row r="1" ht="28.5" spans="2:17">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15">
+      <c r="A306" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="O306" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15">
+      <c r="A308" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="O308" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="309" ht="42.75" spans="1:15">
+      <c r="A309" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="O309" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15">
+      <c r="A310" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="O310" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15">
+      <c r="A311" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="O311" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15">
+      <c r="A312" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="O312" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15">
+      <c r="A313" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="O313" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15">
+      <c r="A315" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="O315" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15">
+      <c r="A316" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="O316" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15">
+      <c r="A317" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="O317" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15">
+      <c r="A318" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="O318" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15">
+      <c r="A320" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O320" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15">
+      <c r="A322" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5"/>
+      <c r="K322" s="5"/>
+      <c r="L322" s="5"/>
+      <c r="M322" s="7"/>
+      <c r="N322" s="5"/>
+      <c r="O322" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15">
+      <c r="A323" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C323" s="6"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5"/>
+      <c r="K323" s="5"/>
+      <c r="L323" s="5"/>
+      <c r="M323" s="7"/>
+      <c r="N323" s="5"/>
+      <c r="O323" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15">
+      <c r="A324" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C324" s="6"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="5"/>
+      <c r="J324" s="5"/>
+      <c r="K324" s="5"/>
+      <c r="L324" s="5"/>
+      <c r="M324" s="7"/>
+      <c r="N324" s="5"/>
+      <c r="O324" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15">
+      <c r="A325" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C325" s="6"/>
+      <c r="D325" s="5"/>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="5"/>
+      <c r="I325" s="5"/>
+      <c r="J325" s="5"/>
+      <c r="K325" s="5"/>
+      <c r="L325" s="5"/>
+      <c r="M325" s="7"/>
+      <c r="N325" s="5"/>
+      <c r="O325" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15">
+      <c r="A326" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C326" s="6"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="5"/>
+      <c r="J326" s="5"/>
+      <c r="K326" s="5"/>
+      <c r="L326" s="5"/>
+      <c r="M326" s="7"/>
+      <c r="N326" s="5"/>
+      <c r="O326" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15">
+      <c r="A327" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C327" s="6"/>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5"/>
+      <c r="K327" s="5"/>
+      <c r="L327" s="5"/>
+      <c r="M327" s="7"/>
+      <c r="N327" s="5"/>
+      <c r="O327" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15">
+      <c r="A328" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C328" s="5"/>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="5"/>
+      <c r="J328" s="5"/>
+      <c r="K328" s="5"/>
+      <c r="L328" s="5"/>
+      <c r="M328" s="7"/>
+      <c r="N328" s="5"/>
+      <c r="O328" s="5" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -1068,4 +5422,604 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\TheOtherRoles2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663DE295-C1B1-4D45-A55B-29DDEF56213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B9E48-76FF-45EC-9778-298ADAFEDBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="254">
   <si>
     <t>Category</t>
   </si>
@@ -702,13 +702,125 @@
   <si>
     <t>&lt;color=#FFFF00FF&gt;On (Until Meeting Ends)&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opt-General</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 1</t>
+  </si>
+  <si>
+    <t>Preset 2</t>
+  </si>
+  <si>
+    <t>Random Preset Skeld</t>
+  </si>
+  <si>
+    <t>Random Preset Mira HQ</t>
+  </si>
+  <si>
+    <t>Random Preset Polus</t>
+  </si>
+  <si>
+    <t>Random Preset Airship</t>
+  </si>
+  <si>
+    <t>Random Preset Fungle</t>
+  </si>
+  <si>
+    <t>Random Preset Submerged</t>
+  </si>
+  <si>
+    <t>Opt-Engineer</t>
+  </si>
+  <si>
+    <t>Opt-Engineer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Of Sabotage Fixes</t>
+  </si>
+  <si>
+    <t>Impostors See Vents Highlighted</t>
+  </si>
+  <si>
+    <t>Jackal and Sidekick See Vents Highlighted</t>
+  </si>
+  <si>
+    <t>Opt-PrivateInvestigator</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can see target player color</t>
+  </si>
+  <si>
+    <t>Opt-Sheriff</t>
+  </si>
+  <si>
+    <t>Opt-Sheriff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheriff Cooldown</t>
+  </si>
+  <si>
+    <t>Sheriff Can Kill Neutrals</t>
+  </si>
+  <si>
+    <t>Sheriff Has A Deputy</t>
+  </si>
+  <si>
+    <t>Deputy Number Of Handcuffs</t>
+  </si>
+  <si>
+    <t>Handcuff Cooldown</t>
+  </si>
+  <si>
+    <t>Handcuff Duration</t>
+  </si>
+  <si>
+    <t>Sheriff And Deputy Know Each Other</t>
+  </si>
+  <si>
+    <t>Deputy Gets Promoted To Sheriff</t>
+  </si>
+  <si>
+    <t>Deputy Keeps Handcuffs When Promoted</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00FF&gt;On (Immediately)&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00FF&gt;On (After Meeting)&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opt-Lighter</t>
+  </si>
+  <si>
+    <t>Opt-Lighter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lighter Mode Vision On Lights On</t>
+  </si>
+  <si>
+    <t>Lighter Mode Vision On Lights Off</t>
+  </si>
+  <si>
+    <t>Lighter Cooldown</t>
+  </si>
+  <si>
+    <t>Lighter Duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +865,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -776,7 +895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,6 +915,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R798"/>
+  <dimension ref="A1:R806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1312,8 +1434,8 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
+      <c r="A10" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="B10" s="4">
         <v>9</v>
@@ -1953,8 +2075,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>18</v>
+      <c r="A45" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
@@ -1966,1294 +2088,1590 @@
         <v>75</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B55" s="1">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="1">
-        <v>3</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="1">
         <v>2</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="1">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>89</v>
+      <c r="C58" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="1">
         <v>2</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>90</v>
+      <c r="C61" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="1">
-        <v>2</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="2"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1">
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="2"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1">
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>93</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B72" s="1">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="2"/>
+      <c r="A73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="1">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="1">
         <v>1</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="1">
         <v>1</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="1">
-        <v>2</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B81" s="1">
-        <v>3</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B83" s="1">
-        <v>5</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B86" s="1">
-        <v>2</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B87" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B88" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B89" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B90" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="1">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B94" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B95" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="1">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="1">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="1">
+        <v>6</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="1">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="1">
         <v>5</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B106" s="1">
         <v>1</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B107" s="1">
         <v>2</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B108" s="1">
         <v>3</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B109" s="1">
         <v>4</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B110" s="1">
         <v>5</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B111" s="1">
         <v>6</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B113" s="1">
         <v>1</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B114" s="1">
         <v>2</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B115" s="1">
         <v>3</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B116" s="1">
         <v>4</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B117" s="1">
         <v>5</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B118" s="1">
         <v>6</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B120" s="1">
         <v>1</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B121" s="1">
         <v>2</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B123" s="1">
         <v>1</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B125" s="1">
         <v>1</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B126" s="1">
         <v>2</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B127" s="1">
         <v>3</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B129" s="1">
         <v>1</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B130" s="1">
         <v>2</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B132" s="1">
         <v>1</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D124" s="6"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B133" s="1">
         <v>2</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B135" s="1">
         <v>1</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B128" s="1">
-        <v>2</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B129" s="1">
-        <v>3</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B130" s="1">
-        <v>4</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B131" s="1">
-        <v>5</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B132" s="1">
-        <v>6</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B133" s="1">
-        <v>7</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B134" s="1">
-        <v>8</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B135" s="1">
-        <v>9</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B136" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B137" s="1">
+        <v>3</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B139" s="1">
+        <v>5</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B140" s="1">
+        <v>6</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" s="1">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B142" s="1">
+        <v>8</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" s="1">
+        <v>9</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="1">
+        <v>10</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="1">
         <v>11</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B146" s="1">
         <v>12</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B140" s="1">
-        <v>1</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B141" s="1">
-        <v>2</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B142" s="1">
-        <v>3</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B143" s="1">
-        <v>4</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B145" s="1">
-        <v>1</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B146" s="1">
-        <v>2</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B147" s="1">
-        <v>3</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B148" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
-        <v>183</v>
+      <c r="A150" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B150" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B151" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B152" s="1">
-        <v>3</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>182</v>
+      <c r="A153" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="B153" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B154" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B155" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>182</v>
+      <c r="A156" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="B156" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B157" s="1">
-        <v>8</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B159" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B160" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B161" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B162" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B163" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B164" s="1">
+        <v>7</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B165" s="1">
+        <v>8</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B164" s="1">
-        <v>6</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B166" s="1">
+      <c r="B167" s="1">
         <v>1</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B167" s="1">
-        <v>2</v>
-      </c>
       <c r="C167" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B168" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B169" s="1">
+        <v>3</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B170" s="1">
         <v>4</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B170" s="1">
+      <c r="C170" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171" s="1">
         <v>5</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>204</v>
+      <c r="C171" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B172" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B173" s="1">
-        <v>2</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B174" s="1">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B175" s="1">
+        <v>2</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B176" s="1">
         <v>3</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B176" s="1">
-        <v>1</v>
-      </c>
       <c r="C176" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177" s="1">
+        <v>4</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B178" s="1">
+        <v>5</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B182" s="1">
+        <v>3</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B186" s="1">
+        <v>3</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B187" s="1">
+        <v>4</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B188" s="1">
+        <v>5</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B189" s="1">
+        <v>6</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B190" s="1">
+        <v>7</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B193" s="1">
         <v>2</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B178" s="1">
+      <c r="C193" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B194" s="1">
         <v>3</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B179" s="1">
+      <c r="C194" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B200" s="1">
+        <v>3</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B201" s="1">
         <v>4</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B180" s="1">
+      <c r="C201" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B202" s="1">
         <v>5</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B181" s="1">
+      <c r="C202" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B203" s="1">
         <v>6</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B182" s="1">
+      <c r="C203" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B204" s="1">
         <v>7</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="203" ht="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C662" s="5"/>
-      <c r="D662" s="5"/>
-    </row>
-    <row r="663" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C663" s="5"/>
-      <c r="D663" s="5"/>
-    </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C701" s="5"/>
-    </row>
-    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C790" s="5"/>
-    </row>
-    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C791" s="5"/>
-    </row>
-    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C792" s="5"/>
-    </row>
-    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C793" s="5"/>
-    </row>
-    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C794" s="5"/>
-    </row>
-    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C795" s="5"/>
-    </row>
-    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C796" s="5"/>
-    </row>
-    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C797" s="5"/>
+      <c r="C204" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B205" s="1">
+        <v>8</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B206" s="1">
+        <v>9</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B207" s="1">
+        <v>10</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B208" s="1">
+        <v>11</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B212" s="1">
+        <v>3</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B213" s="1">
+        <v>4</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="670" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C670" s="5"/>
+      <c r="D670" s="5"/>
+    </row>
+    <row r="671" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C671" s="5"/>
+      <c r="D671" s="5"/>
+    </row>
+    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C709" s="5"/>
     </row>
     <row r="798" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C798" s="5"/>
+    </row>
+    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C799" s="5"/>
+    </row>
+    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C800" s="5"/>
+    </row>
+    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C801" s="5"/>
+    </row>
+    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C802" s="5"/>
+    </row>
+    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C803" s="5"/>
+    </row>
+    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C804" s="5"/>
+    </row>
+    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C805" s="5"/>
+    </row>
+    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C806" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
